--- a/Processo/Avaliação/GRE-Auditoria.xlsx
+++ b/Processo/Avaliação/GRE-Auditoria.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="45">
   <si>
     <t>INSTRUÇÕES</t>
   </si>
@@ -158,6 +158,15 @@
   <si>
     <t>RAP 10. (Para o nível G). O processo planejado para o projeto é executado.
 As evidências apresentadas para este resultado permitem assegurar que o projeto foi conduzido a partir da execução do seu processo planejado, bem como se existem registros de execução das atividades do processo com base no seu planejamento?</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -335,7 +344,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -470,6 +479,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -484,7 +508,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -642,6 +666,19 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -29010,7 +29047,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -29338,7 +29377,9 @@
         <v>23</v>
       </c>
       <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
+      <c r="D11" s="26" t="s">
+        <v>42</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -29548,7 +29589,9 @@
         <v>23</v>
       </c>
       <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
+      <c r="D18" s="26" t="s">
+        <v>43</v>
+      </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -29758,7 +29801,9 @@
         <v>23</v>
       </c>
       <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
+      <c r="D25" s="26" t="s">
+        <v>42</v>
+      </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -29817,7 +29862,7 @@
         <v>29</v>
       </c>
       <c r="B27" s="21"/>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="57" t="s">
         <v>20</v>
       </c>
       <c r="D27" s="23" t="s">
@@ -29850,11 +29895,11 @@
       <c r="A28" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="30" t="s">
+      <c r="B28" s="55"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="21"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -29880,8 +29925,8 @@
     </row>
     <row r="29" spans="1:26" ht="12.75" customHeight="1">
       <c r="A29" s="20"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="59"/>
       <c r="D29" s="21"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -29968,7 +30013,9 @@
         <v>23</v>
       </c>
       <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
+      <c r="D32" s="26" t="s">
+        <v>43</v>
+      </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -30061,10 +30108,9 @@
         <v>30</v>
       </c>
       <c r="B35" s="29"/>
-      <c r="C35" s="23" t="s">
+      <c r="D35" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="21"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -30178,7 +30224,9 @@
         <v>23</v>
       </c>
       <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
+      <c r="D39" s="33" t="s">
+        <v>42</v>
+      </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -30506,7 +30554,9 @@
         <v>23</v>
       </c>
       <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
+      <c r="D50" s="26" t="s">
+        <v>42</v>
+      </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -30712,7 +30762,9 @@
         <v>23</v>
       </c>
       <c r="C57" s="26"/>
-      <c r="D57" s="26"/>
+      <c r="D57" s="26" t="s">
+        <v>44</v>
+      </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
@@ -30922,7 +30974,9 @@
         <v>23</v>
       </c>
       <c r="C64" s="26"/>
-      <c r="D64" s="26"/>
+      <c r="D64" s="26" t="s">
+        <v>42</v>
+      </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
@@ -31132,7 +31186,9 @@
         <v>23</v>
       </c>
       <c r="C71" s="26"/>
-      <c r="D71" s="26"/>
+      <c r="D71" s="26" t="s">
+        <v>43</v>
+      </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
@@ -31542,7 +31598,9 @@
         <v>23</v>
       </c>
       <c r="C85" s="26"/>
-      <c r="D85" s="26"/>
+      <c r="D85" s="26" t="s">
+        <v>42</v>
+      </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
@@ -31750,7 +31808,9 @@
         <v>23</v>
       </c>
       <c r="C92" s="26"/>
-      <c r="D92" s="26"/>
+      <c r="D92" s="26" t="s">
+        <v>42</v>
+      </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
@@ -57212,10 +57272,10 @@
     <hyperlink ref="D21" r:id="rId10"/>
     <hyperlink ref="C27" r:id="rId11"/>
     <hyperlink ref="D27" r:id="rId12"/>
-    <hyperlink ref="C28" r:id="rId13"/>
+    <hyperlink ref="D28" r:id="rId13"/>
     <hyperlink ref="C34" r:id="rId14"/>
     <hyperlink ref="D34" r:id="rId15"/>
-    <hyperlink ref="C35" r:id="rId16"/>
+    <hyperlink ref="D35" r:id="rId16"/>
     <hyperlink ref="C45" r:id="rId17"/>
     <hyperlink ref="D45" r:id="rId18"/>
     <hyperlink ref="D46" r:id="rId19"/>
